--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ucn2-Il10rb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ucn2-Il10rb.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3617913333333334</v>
+        <v>0.08557100000000001</v>
       </c>
       <c r="H2">
-        <v>1.085374</v>
+        <v>0.256713</v>
       </c>
       <c r="I2">
-        <v>0.04578080100647625</v>
+        <v>0.06387618749386496</v>
       </c>
       <c r="J2">
-        <v>0.06509043373192534</v>
+        <v>0.07301011993587267</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.673966</v>
+        <v>15.457781</v>
       </c>
       <c r="N2">
-        <v>56.02189799999999</v>
+        <v>46.37334300000001</v>
       </c>
       <c r="O2">
-        <v>0.08731413067222926</v>
+        <v>0.06556145111550851</v>
       </c>
       <c r="P2">
-        <v>0.08832249583235838</v>
+        <v>0.06612884891228415</v>
       </c>
       <c r="Q2">
-        <v>6.756079057761332</v>
+        <v>1.322737777951</v>
       </c>
       <c r="R2">
-        <v>60.804711519852</v>
+        <v>11.904640001559</v>
       </c>
       <c r="S2">
-        <v>0.003997310841358792</v>
+        <v>0.004187815543824084</v>
       </c>
       <c r="T2">
-        <v>0.005748949562014375</v>
+        <v>0.004828075190307069</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.3617913333333334</v>
+        <v>0.08557100000000001</v>
       </c>
       <c r="H3">
-        <v>1.085374</v>
+        <v>0.256713</v>
       </c>
       <c r="I3">
-        <v>0.04578080100647625</v>
+        <v>0.06387618749386496</v>
       </c>
       <c r="J3">
-        <v>0.06509043373192534</v>
+        <v>0.07301011993587267</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>30.928926</v>
       </c>
       <c r="O3">
-        <v>0.04820494097354055</v>
+        <v>0.04372652775979898</v>
       </c>
       <c r="P3">
-        <v>0.04876164562889891</v>
+        <v>0.04410495647193727</v>
       </c>
       <c r="Q3">
-        <v>3.729939125369333</v>
+        <v>0.882206375582</v>
       </c>
       <c r="R3">
-        <v>33.569452128324</v>
+        <v>7.939857380238</v>
       </c>
       <c r="S3">
-        <v>0.002206860810238593</v>
+        <v>0.002793083885640611</v>
       </c>
       <c r="T3">
-        <v>0.003173916663467472</v>
+        <v>0.003220108161782584</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.3617913333333334</v>
+        <v>0.08557100000000001</v>
       </c>
       <c r="H4">
-        <v>1.085374</v>
+        <v>0.256713</v>
       </c>
       <c r="I4">
-        <v>0.04578080100647625</v>
+        <v>0.06387618749386496</v>
       </c>
       <c r="J4">
-        <v>0.06509043373192534</v>
+        <v>0.07301011993587267</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>76.40418233333332</v>
+        <v>93.99363466666667</v>
       </c>
       <c r="N4">
-        <v>229.212547</v>
+        <v>281.980904</v>
       </c>
       <c r="O4">
-        <v>0.3572441312229817</v>
+        <v>0.3986574194813364</v>
       </c>
       <c r="P4">
-        <v>0.3613698384001868</v>
+        <v>0.4021075771217379</v>
       </c>
       <c r="Q4">
-        <v>27.64237099861977</v>
+        <v>8.043129312061334</v>
       </c>
       <c r="R4">
-        <v>248.781338987578</v>
+        <v>72.38816380855201</v>
       </c>
       <c r="S4">
-        <v>0.01635492248225081</v>
+        <v>0.02546471607261022</v>
       </c>
       <c r="T4">
-        <v>0.02352171951910393</v>
+        <v>0.02935792243278125</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.3617913333333334</v>
+        <v>0.08557100000000001</v>
       </c>
       <c r="H5">
-        <v>1.085374</v>
+        <v>0.256713</v>
       </c>
       <c r="I5">
-        <v>0.04578080100647625</v>
+        <v>0.06387618749386496</v>
       </c>
       <c r="J5">
-        <v>0.06509043373192534</v>
+        <v>0.07301011993587267</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.325205</v>
+        <v>6.0689915</v>
       </c>
       <c r="N5">
-        <v>14.65041</v>
+        <v>12.137983</v>
       </c>
       <c r="O5">
-        <v>0.03425056608600804</v>
+        <v>0.02574055678157729</v>
       </c>
       <c r="P5">
-        <v>0.02309741051913917</v>
+        <v>0.01730888463026859</v>
       </c>
       <c r="Q5">
-        <v>2.65019568389</v>
+        <v>0.5193296716465</v>
       </c>
       <c r="R5">
-        <v>15.90117410334</v>
+        <v>3.115978029879</v>
       </c>
       <c r="S5">
-        <v>0.001568018350342698</v>
+        <v>0.001644208631176508</v>
       </c>
       <c r="T5">
-        <v>0.001503420468775103</v>
+        <v>0.001263723742812093</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3617913333333334</v>
+        <v>0.08557100000000001</v>
       </c>
       <c r="H6">
-        <v>1.085374</v>
+        <v>0.256713</v>
       </c>
       <c r="I6">
-        <v>0.04578080100647625</v>
+        <v>0.06387618749386496</v>
       </c>
       <c r="J6">
-        <v>0.06509043373192534</v>
+        <v>0.07301011993587267</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.1580683333333</v>
+        <v>109.9454063333333</v>
       </c>
       <c r="N6">
-        <v>303.474205</v>
+        <v>329.836219</v>
       </c>
       <c r="O6">
-        <v>0.4729862310452405</v>
+        <v>0.4663140448617789</v>
       </c>
       <c r="P6">
-        <v>0.4784486096194165</v>
+        <v>0.470349732863772</v>
       </c>
       <c r="Q6">
-        <v>36.59811241974111</v>
+        <v>9.408138365349668</v>
       </c>
       <c r="R6">
-        <v>329.38301177767</v>
+        <v>84.67324528814702</v>
       </c>
       <c r="S6">
-        <v>0.02165368852228535</v>
+        <v>0.02978636336061355</v>
       </c>
       <c r="T6">
-        <v>0.03114242751856445</v>
+        <v>0.03434029040818967</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.7846219999999999</v>
       </c>
       <c r="I7">
-        <v>0.03309515765745578</v>
+        <v>0.1952322709945009</v>
       </c>
       <c r="J7">
-        <v>0.04705418251737255</v>
+        <v>0.223149378194031</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.673966</v>
+        <v>15.457781</v>
       </c>
       <c r="N7">
-        <v>56.02189799999999</v>
+        <v>46.37334300000001</v>
       </c>
       <c r="O7">
-        <v>0.08731413067222926</v>
+        <v>0.06556145111550851</v>
       </c>
       <c r="P7">
-        <v>0.08832249583235838</v>
+        <v>0.06612884891228415</v>
       </c>
       <c r="Q7">
-        <v>4.884001516950665</v>
+        <v>4.042838347927334</v>
       </c>
       <c r="R7">
-        <v>43.95601365255599</v>
+        <v>36.385545131346</v>
       </c>
       <c r="S7">
-        <v>0.002889674920321123</v>
+        <v>0.01279971099097568</v>
       </c>
       <c r="T7">
-        <v>0.004155942839285667</v>
+        <v>0.01475661151546323</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.7846219999999999</v>
       </c>
       <c r="I8">
-        <v>0.03309515765745578</v>
+        <v>0.1952322709945009</v>
       </c>
       <c r="J8">
-        <v>0.04705418251737255</v>
+        <v>0.223149378194031</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>30.928926</v>
       </c>
       <c r="O8">
-        <v>0.04820494097354055</v>
+        <v>0.04372652775979898</v>
       </c>
       <c r="P8">
-        <v>0.04876164562889891</v>
+        <v>0.04410495647193727</v>
       </c>
       <c r="Q8">
         <v>2.696390641774666</v>
@@ -948,10 +948,10 @@
         <v>24.267515775972</v>
       </c>
       <c r="S8">
-        <v>0.001595350121387674</v>
+        <v>0.008536829317249639</v>
       </c>
       <c r="T8">
-        <v>0.002294439373269651</v>
+        <v>0.009841993611987605</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.7846219999999999</v>
       </c>
       <c r="I9">
-        <v>0.03309515765745578</v>
+        <v>0.1952322709945009</v>
       </c>
       <c r="J9">
-        <v>0.04705418251737255</v>
+        <v>0.223149378194031</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>76.40418233333332</v>
+        <v>93.99363466666667</v>
       </c>
       <c r="N9">
-        <v>229.212547</v>
+        <v>281.980904</v>
       </c>
       <c r="O9">
-        <v>0.3572441312229817</v>
+        <v>0.3986574194813364</v>
       </c>
       <c r="P9">
-        <v>0.3613698384001868</v>
+        <v>0.4021075771217379</v>
       </c>
       <c r="Q9">
-        <v>19.98280078358155</v>
+        <v>24.58315787314311</v>
       </c>
       <c r="R9">
-        <v>179.845207052234</v>
+        <v>221.248420858288</v>
       </c>
       <c r="S9">
-        <v>0.0118230508450254</v>
+        <v>0.07783079335414868</v>
       </c>
       <c r="T9">
-        <v>0.01700396233235581</v>
+        <v>0.08973005580182418</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.7846219999999999</v>
       </c>
       <c r="I10">
-        <v>0.03309515765745578</v>
+        <v>0.1952322709945009</v>
       </c>
       <c r="J10">
-        <v>0.04705418251737255</v>
+        <v>0.223149378194031</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.325205</v>
+        <v>6.0689915</v>
       </c>
       <c r="N10">
-        <v>14.65041</v>
+        <v>12.137983</v>
       </c>
       <c r="O10">
-        <v>0.03425056608600804</v>
+        <v>0.02574055678157729</v>
       </c>
       <c r="P10">
-        <v>0.02309741051913917</v>
+        <v>0.01730888463026859</v>
       </c>
       <c r="Q10">
-        <v>1.91583899917</v>
+        <v>1.587288082904333</v>
       </c>
       <c r="R10">
-        <v>11.49503399502</v>
+        <v>9.523728497425999</v>
       </c>
       <c r="S10">
-        <v>0.001133527884473544</v>
+        <v>0.005025387357130235</v>
       </c>
       <c r="T10">
-        <v>0.001086829770246255</v>
+        <v>0.003862466842476656</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.7846219999999999</v>
       </c>
       <c r="I11">
-        <v>0.03309515765745578</v>
+        <v>0.1952322709945009</v>
       </c>
       <c r="J11">
-        <v>0.04705418251737255</v>
+        <v>0.223149378194031</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>101.1580683333333</v>
+        <v>109.9454063333333</v>
       </c>
       <c r="N11">
-        <v>303.474205</v>
+        <v>329.836219</v>
       </c>
       <c r="O11">
-        <v>0.4729862310452405</v>
+        <v>0.4663140448617789</v>
       </c>
       <c r="P11">
-        <v>0.4784486096194165</v>
+        <v>0.470349732863772</v>
       </c>
       <c r="Q11">
-        <v>26.45694863061222</v>
+        <v>28.75519486935755</v>
       </c>
       <c r="R11">
-        <v>238.11253767551</v>
+        <v>258.796753824218</v>
       </c>
       <c r="S11">
-        <v>0.01565355388624804</v>
+        <v>0.09103954997499664</v>
       </c>
       <c r="T11">
-        <v>0.02251300820221515</v>
+        <v>0.1049582504222793</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.091943</v>
+        <v>0.121319</v>
       </c>
       <c r="H12">
-        <v>0.275829</v>
+        <v>0.363957</v>
       </c>
       <c r="I12">
-        <v>0.01163439750796991</v>
+        <v>0.09056099835888562</v>
       </c>
       <c r="J12">
-        <v>0.01654160616141831</v>
+        <v>0.1035107073716579</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.673966</v>
+        <v>15.457781</v>
       </c>
       <c r="N12">
-        <v>56.02189799999999</v>
+        <v>46.37334300000001</v>
       </c>
       <c r="O12">
-        <v>0.08731413067222926</v>
+        <v>0.06556145111550851</v>
       </c>
       <c r="P12">
-        <v>0.08832249583235838</v>
+        <v>0.06612884891228415</v>
       </c>
       <c r="Q12">
-        <v>1.716940455938</v>
+        <v>1.875322533139</v>
       </c>
       <c r="R12">
-        <v>15.452464103442</v>
+        <v>16.877902798251</v>
       </c>
       <c r="S12">
-        <v>0.001015847304303544</v>
+        <v>0.005937310466877726</v>
       </c>
       <c r="T12">
-        <v>0.001460995941252382</v>
+        <v>0.006845043928584021</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.091943</v>
+        <v>0.121319</v>
       </c>
       <c r="H13">
-        <v>0.275829</v>
+        <v>0.363957</v>
       </c>
       <c r="I13">
-        <v>0.01163439750796991</v>
+        <v>0.09056099835888562</v>
       </c>
       <c r="J13">
-        <v>0.01654160616141831</v>
+        <v>0.1035107073716579</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>30.928926</v>
       </c>
       <c r="O13">
-        <v>0.04820494097354055</v>
+        <v>0.04372652775979898</v>
       </c>
       <c r="P13">
-        <v>0.04876164562889891</v>
+        <v>0.04410495647193727</v>
       </c>
       <c r="Q13">
-        <v>0.9478994144059998</v>
+        <v>1.250755457798</v>
       </c>
       <c r="R13">
-        <v>8.531094729653999</v>
+        <v>11.256799120182</v>
       </c>
       <c r="S13">
-        <v>0.000560835445134397</v>
+        <v>0.003959918008694922</v>
       </c>
       <c r="T13">
-        <v>0.0008065959377758903</v>
+        <v>0.004565335243006406</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.091943</v>
+        <v>0.121319</v>
       </c>
       <c r="H14">
-        <v>0.275829</v>
+        <v>0.363957</v>
       </c>
       <c r="I14">
-        <v>0.01163439750796991</v>
+        <v>0.09056099835888562</v>
       </c>
       <c r="J14">
-        <v>0.01654160616141831</v>
+        <v>0.1035107073716579</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>76.40418233333332</v>
+        <v>93.99363466666667</v>
       </c>
       <c r="N14">
-        <v>229.212547</v>
+        <v>281.980904</v>
       </c>
       <c r="O14">
-        <v>0.3572441312229817</v>
+        <v>0.3986574194813364</v>
       </c>
       <c r="P14">
-        <v>0.3613698384001868</v>
+        <v>0.4021075771217379</v>
       </c>
       <c r="Q14">
-        <v>7.024829736273666</v>
+        <v>11.40321376412533</v>
       </c>
       <c r="R14">
-        <v>63.22346762646299</v>
+        <v>102.628923877128</v>
       </c>
       <c r="S14">
-        <v>0.004156320230037535</v>
+        <v>0.03610281391140688</v>
       </c>
       <c r="T14">
-        <v>0.005977637545431268</v>
+        <v>0.04162243974737456</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.091943</v>
+        <v>0.121319</v>
       </c>
       <c r="H15">
-        <v>0.275829</v>
+        <v>0.363957</v>
       </c>
       <c r="I15">
-        <v>0.01163439750796991</v>
+        <v>0.09056099835888562</v>
       </c>
       <c r="J15">
-        <v>0.01654160616141831</v>
+        <v>0.1035107073716579</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.325205</v>
+        <v>6.0689915</v>
       </c>
       <c r="N15">
-        <v>14.65041</v>
+        <v>12.137983</v>
       </c>
       <c r="O15">
-        <v>0.03425056608600804</v>
+        <v>0.02574055678157729</v>
       </c>
       <c r="P15">
-        <v>0.02309741051913917</v>
+        <v>0.01730888463026859</v>
       </c>
       <c r="Q15">
-        <v>0.673501323315</v>
+        <v>0.7362839797885</v>
       </c>
       <c r="R15">
-        <v>4.04100793989</v>
+        <v>4.417703878730999</v>
       </c>
       <c r="S15">
-        <v>0.0003984847007176108</v>
+        <v>0.002331090520453224</v>
       </c>
       <c r="T15">
-        <v>0.0003820682681562005</v>
+        <v>0.001791654891893519</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.091943</v>
+        <v>0.121319</v>
       </c>
       <c r="H16">
-        <v>0.275829</v>
+        <v>0.363957</v>
       </c>
       <c r="I16">
-        <v>0.01163439750796991</v>
+        <v>0.09056099835888562</v>
       </c>
       <c r="J16">
-        <v>0.01654160616141831</v>
+        <v>0.1035107073716579</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>101.1580683333333</v>
+        <v>109.9454063333333</v>
       </c>
       <c r="N16">
-        <v>303.474205</v>
+        <v>329.836219</v>
       </c>
       <c r="O16">
-        <v>0.4729862310452405</v>
+        <v>0.4663140448617789</v>
       </c>
       <c r="P16">
-        <v>0.4784486096194165</v>
+        <v>0.470349732863772</v>
       </c>
       <c r="Q16">
-        <v>9.300776276771666</v>
+        <v>13.33846675095367</v>
       </c>
       <c r="R16">
-        <v>83.706986490945</v>
+        <v>120.046200758583</v>
       </c>
       <c r="S16">
-        <v>0.005502909827776827</v>
+        <v>0.04222986545145287</v>
       </c>
       <c r="T16">
-        <v>0.007914308468802563</v>
+        <v>0.04868623356079935</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.0331985</v>
+        <v>0.5027865</v>
       </c>
       <c r="H17">
-        <v>14.066397</v>
+        <v>1.005573</v>
       </c>
       <c r="I17">
-        <v>0.8899756055540687</v>
+        <v>0.3753150570097829</v>
       </c>
       <c r="J17">
-        <v>0.8435690202413669</v>
+        <v>0.2859886539998959</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.673966</v>
+        <v>15.457781</v>
       </c>
       <c r="N17">
-        <v>56.02189799999999</v>
+        <v>46.37334300000001</v>
       </c>
       <c r="O17">
-        <v>0.08731413067222926</v>
+        <v>0.06556145111550851</v>
       </c>
       <c r="P17">
-        <v>0.08832249583235838</v>
+        <v>0.06612884891228415</v>
       </c>
       <c r="Q17">
-        <v>131.337709660251</v>
+        <v>7.771963606756501</v>
       </c>
       <c r="R17">
-        <v>788.026257961506</v>
+        <v>46.63178164053901</v>
       </c>
       <c r="S17">
-        <v>0.07770744631844433</v>
+        <v>0.02460619976306117</v>
       </c>
       <c r="T17">
-        <v>0.07450612127457477</v>
+        <v>0.01891210049098663</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.0331985</v>
+        <v>0.5027865</v>
       </c>
       <c r="H18">
-        <v>14.066397</v>
+        <v>1.005573</v>
       </c>
       <c r="I18">
-        <v>0.8899756055540687</v>
+        <v>0.3753150570097829</v>
       </c>
       <c r="J18">
-        <v>0.8435690202413669</v>
+        <v>0.2859886539998959</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>30.928926</v>
       </c>
       <c r="O18">
-        <v>0.04820494097354055</v>
+        <v>0.04372652775979898</v>
       </c>
       <c r="P18">
-        <v>0.04876164562889891</v>
+        <v>0.04410495647193727</v>
       </c>
       <c r="Q18">
-        <v>72.50975864993698</v>
+        <v>5.183548817433</v>
       </c>
       <c r="R18">
-        <v>435.058551899622</v>
+        <v>31.101292904598</v>
       </c>
       <c r="S18">
-        <v>0.04290122153362489</v>
+        <v>0.01641122425900881</v>
       </c>
       <c r="T18">
-        <v>0.04113381362852699</v>
+        <v>0.01261351713613334</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.0331985</v>
+        <v>0.5027865</v>
       </c>
       <c r="H19">
-        <v>14.066397</v>
+        <v>1.005573</v>
       </c>
       <c r="I19">
-        <v>0.8899756055540687</v>
+        <v>0.3753150570097829</v>
       </c>
       <c r="J19">
-        <v>0.8435690202413669</v>
+        <v>0.2859886539998959</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>76.40418233333332</v>
+        <v>93.99363466666667</v>
       </c>
       <c r="N19">
-        <v>229.212547</v>
+        <v>281.980904</v>
       </c>
       <c r="O19">
-        <v>0.3572441312229817</v>
+        <v>0.3986574194813364</v>
       </c>
       <c r="P19">
-        <v>0.3613698384001868</v>
+        <v>0.4021075771217379</v>
       </c>
       <c r="Q19">
-        <v>537.3657805805265</v>
+        <v>47.258730596332</v>
       </c>
       <c r="R19">
-        <v>3224.194683483159</v>
+        <v>283.552383577992</v>
       </c>
       <c r="S19">
-        <v>0.3179385620158103</v>
+        <v>0.1496221321200107</v>
       </c>
       <c r="T19">
-        <v>0.3048404005240267</v>
+        <v>0.1149982047442052</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.0331985</v>
+        <v>0.5027865</v>
       </c>
       <c r="H20">
-        <v>14.066397</v>
+        <v>1.005573</v>
       </c>
       <c r="I20">
-        <v>0.8899756055540687</v>
+        <v>0.3753150570097829</v>
       </c>
       <c r="J20">
-        <v>0.8435690202413669</v>
+        <v>0.2859886539998959</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>7.325205</v>
+        <v>6.0689915</v>
       </c>
       <c r="N20">
-        <v>14.65041</v>
+        <v>12.137983</v>
       </c>
       <c r="O20">
-        <v>0.03425056608600804</v>
+        <v>0.02574055678157729</v>
       </c>
       <c r="P20">
-        <v>0.02309741051913917</v>
+        <v>0.01730888463026859</v>
       </c>
       <c r="Q20">
-        <v>51.51962081819251</v>
+        <v>3.05140699481475</v>
       </c>
       <c r="R20">
-        <v>206.07848327277</v>
+        <v>12.205627979259</v>
       </c>
       <c r="S20">
-        <v>0.03048216829296466</v>
+        <v>0.009660818535941236</v>
       </c>
       <c r="T20">
-        <v>0.01948425996174287</v>
+        <v>0.004950144617650001</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.0331985</v>
+        <v>0.5027865</v>
       </c>
       <c r="H21">
-        <v>14.066397</v>
+        <v>1.005573</v>
       </c>
       <c r="I21">
-        <v>0.8899756055540687</v>
+        <v>0.3753150570097829</v>
       </c>
       <c r="J21">
-        <v>0.8435690202413669</v>
+        <v>0.2859886539998959</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>101.1580683333333</v>
+        <v>109.9454063333333</v>
       </c>
       <c r="N21">
-        <v>303.474205</v>
+        <v>329.836219</v>
       </c>
       <c r="O21">
-        <v>0.4729862310452405</v>
+        <v>0.4663140448617789</v>
       </c>
       <c r="P21">
-        <v>0.4784486096194165</v>
+        <v>0.470349732863772</v>
       </c>
       <c r="Q21">
-        <v>711.4647744648975</v>
+        <v>55.2790660414145</v>
       </c>
       <c r="R21">
-        <v>4268.788646789385</v>
+        <v>331.674396248487</v>
       </c>
       <c r="S21">
-        <v>0.4209462073932245</v>
+        <v>0.175014682331761</v>
       </c>
       <c r="T21">
-        <v>0.4036044248524955</v>
+        <v>0.1345146870109208</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.1542133333333333</v>
+        <v>0.3684213333333333</v>
       </c>
       <c r="H22">
-        <v>0.46264</v>
+        <v>1.105264</v>
       </c>
       <c r="I22">
-        <v>0.01951403827402921</v>
+        <v>0.2750154861429657</v>
       </c>
       <c r="J22">
-        <v>0.02774475734791688</v>
+        <v>0.3143411404985426</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>18.673966</v>
+        <v>15.457781</v>
       </c>
       <c r="N22">
-        <v>56.02189799999999</v>
+        <v>46.37334300000001</v>
       </c>
       <c r="O22">
-        <v>0.08731413067222926</v>
+        <v>0.06556145111550851</v>
       </c>
       <c r="P22">
-        <v>0.08832249583235838</v>
+        <v>0.06612884891228415</v>
       </c>
       <c r="Q22">
-        <v>2.879774543413333</v>
+        <v>5.694976286394668</v>
       </c>
       <c r="R22">
-        <v>25.91797089072</v>
+        <v>51.254786577552</v>
       </c>
       <c r="S22">
-        <v>0.001703851287801469</v>
+        <v>0.01803041435076985</v>
       </c>
       <c r="T22">
-        <v>0.002450486215231183</v>
+        <v>0.02078701778694321</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.1542133333333333</v>
+        <v>0.3684213333333333</v>
       </c>
       <c r="H23">
-        <v>0.46264</v>
+        <v>1.105264</v>
       </c>
       <c r="I23">
-        <v>0.01951403827402921</v>
+        <v>0.2750154861429657</v>
       </c>
       <c r="J23">
-        <v>0.02774475734791688</v>
+        <v>0.3143411404985426</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>30.928926</v>
       </c>
       <c r="O23">
-        <v>0.04820494097354055</v>
+        <v>0.04372652775979898</v>
       </c>
       <c r="P23">
-        <v>0.04876164562889891</v>
+        <v>0.04410495647193727</v>
       </c>
       <c r="Q23">
-        <v>1.589884258293333</v>
+        <v>3.798292051829333</v>
       </c>
       <c r="R23">
-        <v>14.30895832464</v>
+        <v>34.184628466464</v>
       </c>
       <c r="S23">
-        <v>0.000940673063154989</v>
+        <v>0.012025472289205</v>
       </c>
       <c r="T23">
-        <v>0.001352880025858912</v>
+        <v>0.01386400231902734</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.1542133333333333</v>
+        <v>0.3684213333333333</v>
       </c>
       <c r="H24">
-        <v>0.46264</v>
+        <v>1.105264</v>
       </c>
       <c r="I24">
-        <v>0.01951403827402921</v>
+        <v>0.2750154861429657</v>
       </c>
       <c r="J24">
-        <v>0.02774475734791688</v>
+        <v>0.3143411404985426</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>76.40418233333332</v>
+        <v>93.99363466666667</v>
       </c>
       <c r="N24">
-        <v>229.212547</v>
+        <v>281.980904</v>
       </c>
       <c r="O24">
-        <v>0.3572441312229817</v>
+        <v>0.3986574194813364</v>
       </c>
       <c r="P24">
-        <v>0.3613698384001868</v>
+        <v>0.4021075771217379</v>
       </c>
       <c r="Q24">
-        <v>11.78254363823111</v>
+        <v>34.62926020873955</v>
       </c>
       <c r="R24">
-        <v>106.04289274408</v>
+        <v>311.663341878656</v>
       </c>
       <c r="S24">
-        <v>0.006971275649857576</v>
+        <v>0.1096369640231599</v>
       </c>
       <c r="T24">
-        <v>0.01002611847926912</v>
+        <v>0.1263989543955528</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.1542133333333333</v>
+        <v>0.3684213333333333</v>
       </c>
       <c r="H25">
-        <v>0.46264</v>
+        <v>1.105264</v>
       </c>
       <c r="I25">
-        <v>0.01951403827402921</v>
+        <v>0.2750154861429657</v>
       </c>
       <c r="J25">
-        <v>0.02774475734791688</v>
+        <v>0.3143411404985426</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>7.325205</v>
+        <v>6.0689915</v>
       </c>
       <c r="N25">
-        <v>14.65041</v>
+        <v>12.137983</v>
       </c>
       <c r="O25">
-        <v>0.03425056608600804</v>
+        <v>0.02574055678157729</v>
       </c>
       <c r="P25">
-        <v>0.02309741051913917</v>
+        <v>0.01730888463026859</v>
       </c>
       <c r="Q25">
-        <v>1.1296442804</v>
+        <v>2.235945940418667</v>
       </c>
       <c r="R25">
-        <v>6.777865682400001</v>
+        <v>13.415675642512</v>
       </c>
       <c r="S25">
-        <v>0.0006683668575095277</v>
+        <v>0.007079051736876092</v>
       </c>
       <c r="T25">
-        <v>0.0006408320502187391</v>
+        <v>0.005440894535436324</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.1542133333333333</v>
+        <v>0.3684213333333333</v>
       </c>
       <c r="H26">
-        <v>0.46264</v>
+        <v>1.105264</v>
       </c>
       <c r="I26">
-        <v>0.01951403827402921</v>
+        <v>0.2750154861429657</v>
       </c>
       <c r="J26">
-        <v>0.02774475734791688</v>
+        <v>0.3143411404985426</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>101.1580683333333</v>
+        <v>109.9454063333333</v>
       </c>
       <c r="N26">
-        <v>303.474205</v>
+        <v>329.836219</v>
       </c>
       <c r="O26">
-        <v>0.4729862310452405</v>
+        <v>0.4663140448617789</v>
       </c>
       <c r="P26">
-        <v>0.4784486096194165</v>
+        <v>0.470349732863772</v>
       </c>
       <c r="Q26">
-        <v>15.59992291124444</v>
+        <v>40.50623319520178</v>
       </c>
       <c r="R26">
-        <v>140.3993062012</v>
+        <v>364.556098756816</v>
       </c>
       <c r="S26">
-        <v>0.009229871415705644</v>
+        <v>0.1282435837429548</v>
       </c>
       <c r="T26">
-        <v>0.01327444057733892</v>
+        <v>0.1478502714615829</v>
       </c>
     </row>
   </sheetData>
